--- a/medicine/Pharmacie/Milnacipran/Milnacipran.xlsx
+++ b/medicine/Pharmacie/Milnacipran/Milnacipran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le milnacipran est un antidépresseur inhibiteur de la recapture de la sérotonine-noradrénaline. Il a été développé par les laboratoires Pierre Fabre et est commercialisé sous le nom d'Ixel. Il est utilisé dans le traitement de la dépression.
-Pierre Fabre et son partenaire Forest Laboratories ont développé comme successeur au milnacipran son énantiomère, le Levomilnacipran (ou F2695). Malgré l'échec d'un essai de phase III en 2011[2], les recherches se sont poursuivies et des résultats encourageants ont été dévoilés en mars 2012[3]. La FDA a approuvé le produit en juillet 2013 et il est commercialisé aux États-Unis et au Canada sous le nom de Fetzima[4],[5].
+Pierre Fabre et son partenaire Forest Laboratories ont développé comme successeur au milnacipran son énantiomère, le Levomilnacipran (ou F2695). Malgré l'échec d'un essai de phase III en 2011, les recherches se sont poursuivies et des résultats encourageants ont été dévoilés en mars 2012. La FDA a approuvé le produit en juillet 2013 et il est commercialisé aux États-Unis et au Canada sous le nom de Fetzima,.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milnacipran agit en bloquant la recapture de la sérotonine-noradrénaline avec un ratio de 1/3, augmentant ainsi la concentration synaptique de ces neurotransmetteurs.
 </t>
@@ -544,7 +558,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec une biodisponibilité de 85 %, le milnacipran atteint une concentration plasmatique maximale deux heures après la prise orale. Il a une demi-vie de huit heures et est éliminé par voie urinaire (90 %). Cette demi-vie peut donc être augmentée par des maladies rénales, il conviendra donc d'administrer des doses plus faibles aux patients en étant atteints.
 </t>
@@ -575,7 +591,9 @@
           <t>Indications et posologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le milnacipran est utilisé pour traiter :
 La dépression modérée à sévère ;
@@ -611,11 +629,13 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des effets secondaires peuvent apparaître chez certains patients, surtout en début de traitement. Les plus fréquents sont des nausées, des vertiges, de l'anxiété, de l'insomnie, de la dysurie, l'accélération du rythme cardiaque, des troubles sexuels.
 Le syndrome sérotoninergique, bien que rare, est décrit avec la prise d'inhibiteur de la recapture de la sérotonine.
-Des hypertensions artérielles, des tachycardies, des troubles du rythme cardiaque, des allongements de l'intervalle QT de l'électrocardiogramme sont possibles[6].
+Des hypertensions artérielles, des tachycardies, des troubles du rythme cardiaque, des allongements de l'intervalle QT de l'électrocardiogramme sont possibles.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Interactions médicamenteuses connues</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">IMAO, tricyclique, lithium, ISRS; syndrome sérotoninergique potentiellement létale.
 MDMA
@@ -677,7 +699,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Hypersensibilité avec cette substance ;
 Patients de moins de 15 ans ;
